--- a/515 Project Sources/Results_table.xlsx
+++ b/515 Project Sources/Results_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bugra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IE_582_Rep\fall18-bugracnr\515 Project Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10976178-4C9F-4DFE-B7F1-3BB44111B8A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB4043C-F3B5-41B6-8193-FE3F2738BC97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7150" xr2:uid="{62F534D2-9795-4E36-B66D-A54C69D9A2D3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Successive Shortest Path</t>
+  </si>
+  <si>
+    <t>Max B</t>
+  </si>
+  <si>
+    <t>! 4,5,6 same net, diff demand</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C93C78-6769-45F4-A27F-968401CE970F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,7 +415,7 @@
     <col min="1" max="1" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,7 +452,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,9 +469,78 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>1.37</v>
+      </c>
+      <c r="E4">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>31.53</v>
+      </c>
+      <c r="E5">
+        <v>5.36</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>7.65</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>152</v>
+      </c>
+      <c r="E7">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
